--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC5_TC1.xlsx
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1156632959831088</v>
+        <v>0.09386265332331679</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2903995772013246</v>
+        <v>0.2739426453326889</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2903995772013246, 'ngram_match_score': 0.11526513759342034, 'weighted_ngram_match_score': 0.21936588562390275, 'syntax_match_score': 0.45517241379310347, 'dataflow_match_score': 0.3717948717948718}</t>
+          <t>{'codebleu': 0.27394264533268886, 'ngram_match_score': 0.09352561860594595, 'weighted_ngram_match_score': 0.17527767713683412, 'syntax_match_score': 0.45517241379310347, 'dataflow_match_score': 0.3717948717948718}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.5868208288758379</v>
+        <v>0.5961298176503818</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
